--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/L1cam-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/L1cam-Itgav.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.467421333333334</v>
+        <v>6.713252999999999</v>
       </c>
       <c r="H2">
-        <v>25.402264</v>
+        <v>20.139759</v>
       </c>
       <c r="I2">
-        <v>0.2732469334691615</v>
+        <v>0.3101840064655811</v>
       </c>
       <c r="J2">
-        <v>0.312800300005396</v>
+        <v>0.3231642354899327</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.68421466666667</v>
+        <v>13.89934866666667</v>
       </c>
       <c r="N2">
-        <v>32.052644</v>
+        <v>41.69804600000001</v>
       </c>
       <c r="O2">
-        <v>0.04705285980693975</v>
+        <v>0.04853507553134179</v>
       </c>
       <c r="P2">
-        <v>0.04892736897547583</v>
+        <v>0.04999273878390351</v>
       </c>
       <c r="Q2">
-        <v>90.46774719844623</v>
+        <v>93.309844134546</v>
       </c>
       <c r="R2">
-        <v>814.2097247860161</v>
+        <v>839.788597210914</v>
       </c>
       <c r="S2">
-        <v>0.01285704965320065</v>
+        <v>0.01505480418242119</v>
       </c>
       <c r="T2">
-        <v>0.01530449569400354</v>
+        <v>0.01615586520914808</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.467421333333334</v>
+        <v>6.713252999999999</v>
       </c>
       <c r="H3">
-        <v>25.402264</v>
+        <v>20.139759</v>
       </c>
       <c r="I3">
-        <v>0.2732469334691615</v>
+        <v>0.3101840064655811</v>
       </c>
       <c r="J3">
-        <v>0.312800300005396</v>
+        <v>0.3231642354899327</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>211.087055</v>
       </c>
       <c r="O3">
-        <v>0.3098730203341347</v>
+        <v>0.245697991654417</v>
       </c>
       <c r="P3">
-        <v>0.3222178559101571</v>
+        <v>0.253077086664408</v>
       </c>
       <c r="Q3">
-        <v>595.7876775658357</v>
+        <v>472.3602684133049</v>
       </c>
       <c r="R3">
-        <v>5362.089098092521</v>
+        <v>4251.242415719745</v>
       </c>
       <c r="S3">
-        <v>0.08467185257112943</v>
+        <v>0.07621158743191399</v>
       </c>
       <c r="T3">
-        <v>0.1007898419957926</v>
+        <v>0.08178546323192284</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.467421333333334</v>
+        <v>6.713252999999999</v>
       </c>
       <c r="H4">
-        <v>25.402264</v>
+        <v>20.139759</v>
       </c>
       <c r="I4">
-        <v>0.2732469334691615</v>
+        <v>0.3101840064655811</v>
       </c>
       <c r="J4">
-        <v>0.312800300005396</v>
+        <v>0.3231642354899327</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>59.09107466666666</v>
+        <v>82.007665</v>
       </c>
       <c r="N4">
-        <v>177.273224</v>
+        <v>246.022995</v>
       </c>
       <c r="O4">
-        <v>0.2602347611759026</v>
+        <v>0.2863622109480123</v>
       </c>
       <c r="P4">
-        <v>0.2706020894912812</v>
+        <v>0.2949625822722868</v>
       </c>
       <c r="Q4">
-        <v>500.3490262421262</v>
+        <v>550.538203084245</v>
       </c>
       <c r="R4">
-        <v>4503.141236179136</v>
+        <v>4954.843827758204</v>
       </c>
       <c r="S4">
-        <v>0.07110835047339498</v>
+        <v>0.08882497789219637</v>
       </c>
       <c r="T4">
-        <v>0.08464441477495978</v>
+        <v>0.09532135739815993</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.467421333333334</v>
+        <v>6.713252999999999</v>
       </c>
       <c r="H5">
-        <v>25.402264</v>
+        <v>20.139759</v>
       </c>
       <c r="I5">
-        <v>0.2732469334691615</v>
+        <v>0.3101840064655811</v>
       </c>
       <c r="J5">
-        <v>0.312800300005396</v>
+        <v>0.3231642354899327</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>26.0983795</v>
+        <v>25.0501465</v>
       </c>
       <c r="N5">
-        <v>52.196759</v>
+        <v>50.100293</v>
       </c>
       <c r="O5">
-        <v>0.1149362335102661</v>
+        <v>0.0874724982879541</v>
       </c>
       <c r="P5">
-        <v>0.07967673702415903</v>
+        <v>0.06006638442832619</v>
       </c>
       <c r="Q5">
-        <v>220.9859753437294</v>
+        <v>168.1679711415645</v>
       </c>
       <c r="R5">
-        <v>1325.915852062376</v>
+        <v>1009.007826849387</v>
       </c>
       <c r="S5">
-        <v>0.0314059733511757</v>
+        <v>0.02713256997451129</v>
       </c>
       <c r="T5">
-        <v>0.02492290724460799</v>
+        <v>0.01941130720242443</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.467421333333334</v>
+        <v>6.713252999999999</v>
       </c>
       <c r="H6">
-        <v>25.402264</v>
+        <v>20.139759</v>
       </c>
       <c r="I6">
-        <v>0.2732469334691615</v>
+        <v>0.3101840064655811</v>
       </c>
       <c r="J6">
-        <v>0.312800300005396</v>
+        <v>0.3231642354899327</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>60.83231733333334</v>
+        <v>95.05788666666668</v>
       </c>
       <c r="N6">
-        <v>182.496952</v>
+        <v>285.17366</v>
       </c>
       <c r="O6">
-        <v>0.2679031251727568</v>
+        <v>0.3319322235782747</v>
       </c>
       <c r="P6">
-        <v>0.2785759485989269</v>
+        <v>0.3419012078510756</v>
       </c>
       <c r="Q6">
-        <v>515.09286154437</v>
+        <v>638.14764283866</v>
       </c>
       <c r="R6">
-        <v>4635.835753899329</v>
+        <v>5743.32878554794</v>
       </c>
       <c r="S6">
-        <v>0.07320370742026074</v>
+        <v>0.1029600669845383</v>
       </c>
       <c r="T6">
-        <v>0.08713864029603212</v>
+        <v>0.1104902424482774</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>1.003042</v>
       </c>
       <c r="I7">
-        <v>0.01078951666043525</v>
+        <v>0.0154484264788496</v>
       </c>
       <c r="J7">
-        <v>0.01235133366529898</v>
+        <v>0.01609489473505086</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.68421466666667</v>
+        <v>13.89934866666667</v>
       </c>
       <c r="N7">
-        <v>32.052644</v>
+        <v>41.69804600000001</v>
       </c>
       <c r="O7">
-        <v>0.04705285980693975</v>
+        <v>0.04853507553134179</v>
       </c>
       <c r="P7">
-        <v>0.04892736897547583</v>
+        <v>0.04999273878390351</v>
       </c>
       <c r="Q7">
-        <v>3.572238682560889</v>
+        <v>4.647210161770222</v>
       </c>
       <c r="R7">
-        <v>32.150148143048</v>
+        <v>41.824891455932</v>
       </c>
       <c r="S7">
-        <v>0.0005076776148081008</v>
+        <v>0.0007497905459913456</v>
       </c>
       <c r="T7">
-        <v>0.0006043182595812996</v>
+        <v>0.0008046278682438213</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>1.003042</v>
       </c>
       <c r="I8">
-        <v>0.01078951666043525</v>
+        <v>0.0154484264788496</v>
       </c>
       <c r="J8">
-        <v>0.01235133366529898</v>
+        <v>0.01609489473505086</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>211.087055</v>
       </c>
       <c r="O8">
-        <v>0.3098730203341347</v>
+        <v>0.245697991654417</v>
       </c>
       <c r="P8">
-        <v>0.3222178559101571</v>
+        <v>0.253077086664408</v>
       </c>
       <c r="Q8">
         <v>23.52546464681222</v>
@@ -948,10 +948,10 @@
         <v>211.72918182131</v>
       </c>
       <c r="S8">
-        <v>0.003343380115514538</v>
+        <v>0.003795647360074263</v>
       </c>
       <c r="T8">
-        <v>0.00397982025126358</v>
+        <v>0.004073249069716989</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>1.003042</v>
       </c>
       <c r="I9">
-        <v>0.01078951666043525</v>
+        <v>0.0154484264788496</v>
       </c>
       <c r="J9">
-        <v>0.01235133366529898</v>
+        <v>0.01609489473505086</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>59.09107466666666</v>
+        <v>82.007665</v>
       </c>
       <c r="N9">
-        <v>177.273224</v>
+        <v>246.022995</v>
       </c>
       <c r="O9">
-        <v>0.2602347611759026</v>
+        <v>0.2863622109480123</v>
       </c>
       <c r="P9">
-        <v>0.2706020894912812</v>
+        <v>0.2949625822722868</v>
       </c>
       <c r="Q9">
-        <v>19.75694323860089</v>
+        <v>27.41904410564333</v>
       </c>
       <c r="R9">
-        <v>177.812489147408</v>
+        <v>246.77139695079</v>
       </c>
       <c r="S9">
-        <v>0.00280780729133179</v>
+        <v>0.004423845562151188</v>
       </c>
       <c r="T9">
-        <v>0.00334229669783391</v>
+        <v>0.004747391712451234</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>1.003042</v>
       </c>
       <c r="I10">
-        <v>0.01078951666043525</v>
+        <v>0.0154484264788496</v>
       </c>
       <c r="J10">
-        <v>0.01235133366529898</v>
+        <v>0.01609489473505086</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>26.0983795</v>
+        <v>25.0501465</v>
       </c>
       <c r="N10">
-        <v>52.196759</v>
+        <v>50.100293</v>
       </c>
       <c r="O10">
-        <v>0.1149362335102661</v>
+        <v>0.0874724982879541</v>
       </c>
       <c r="P10">
-        <v>0.07967673702415903</v>
+        <v>0.06006638442832619</v>
       </c>
       <c r="Q10">
-        <v>8.725923590146333</v>
+        <v>8.375449681884334</v>
       </c>
       <c r="R10">
-        <v>52.355541540878</v>
+        <v>50.252698091306</v>
       </c>
       <c r="S10">
-        <v>0.001240106406346693</v>
+        <v>0.001351312458722756</v>
       </c>
       <c r="T10">
-        <v>0.0009841139643476692</v>
+        <v>0.0009667621344890078</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>1.003042</v>
       </c>
       <c r="I11">
-        <v>0.01078951666043525</v>
+        <v>0.0154484264788496</v>
       </c>
       <c r="J11">
-        <v>0.01235133366529898</v>
+        <v>0.01609489473505086</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>60.83231733333334</v>
+        <v>95.05788666666668</v>
       </c>
       <c r="N11">
-        <v>182.496952</v>
+        <v>285.17366</v>
       </c>
       <c r="O11">
-        <v>0.2679031251727568</v>
+        <v>0.3319322235782747</v>
       </c>
       <c r="P11">
-        <v>0.2785759485989269</v>
+        <v>0.3419012078510756</v>
       </c>
       <c r="Q11">
-        <v>20.33912308088711</v>
+        <v>31.78235091930222</v>
       </c>
       <c r="R11">
-        <v>183.052107727984</v>
+        <v>286.04115827372</v>
       </c>
       <c r="S11">
-        <v>0.002890545232434131</v>
+        <v>0.005127830551910043</v>
       </c>
       <c r="T11">
-        <v>0.003440784492272525</v>
+        <v>0.005502863950149805</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.140032333333333</v>
+        <v>6.661784666666667</v>
       </c>
       <c r="H12">
-        <v>12.420097</v>
+        <v>19.985354</v>
       </c>
       <c r="I12">
-        <v>0.1336004309946362</v>
+        <v>0.3078059262949933</v>
       </c>
       <c r="J12">
-        <v>0.1529395201819853</v>
+        <v>0.3206866401135023</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.68421466666667</v>
+        <v>13.89934866666667</v>
       </c>
       <c r="N12">
-        <v>32.052644</v>
+        <v>41.69804600000001</v>
       </c>
       <c r="O12">
-        <v>0.04705285980693975</v>
+        <v>0.04853507553134179</v>
       </c>
       <c r="P12">
-        <v>0.04892736897547583</v>
+        <v>0.04999273878390351</v>
       </c>
       <c r="Q12">
-        <v>44.23299417627423</v>
+        <v>92.59446782425378</v>
       </c>
       <c r="R12">
-        <v>398.096947586468</v>
+        <v>833.3502104182842</v>
       </c>
       <c r="S12">
-        <v>0.006286282349737347</v>
+        <v>0.01493938388172212</v>
       </c>
       <c r="T12">
-        <v>0.007482928334876226</v>
+        <v>0.01603200343068199</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.140032333333333</v>
+        <v>6.661784666666667</v>
       </c>
       <c r="H13">
-        <v>12.420097</v>
+        <v>19.985354</v>
       </c>
       <c r="I13">
-        <v>0.1336004309946362</v>
+        <v>0.3078059262949933</v>
       </c>
       <c r="J13">
-        <v>0.1529395201819853</v>
+        <v>0.3206866401135023</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>211.087055</v>
       </c>
       <c r="O13">
-        <v>0.3098730203341347</v>
+        <v>0.245697991654417</v>
       </c>
       <c r="P13">
-        <v>0.3222178559101571</v>
+        <v>0.253077086664408</v>
       </c>
       <c r="Q13">
-        <v>291.3024109493705</v>
+        <v>468.7388354436078</v>
       </c>
       <c r="R13">
-        <v>2621.721698544335</v>
+        <v>4218.64951899247</v>
       </c>
       <c r="S13">
-        <v>0.04139916907025007</v>
+        <v>0.07562729791000737</v>
       </c>
       <c r="T13">
-        <v>0.04927984427696749</v>
+        <v>0.08115844061212263</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.140032333333333</v>
+        <v>6.661784666666667</v>
       </c>
       <c r="H14">
-        <v>12.420097</v>
+        <v>19.985354</v>
       </c>
       <c r="I14">
-        <v>0.1336004309946362</v>
+        <v>0.3078059262949933</v>
       </c>
       <c r="J14">
-        <v>0.1529395201819853</v>
+        <v>0.3206866401135023</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>59.09107466666666</v>
+        <v>82.007665</v>
       </c>
       <c r="N14">
-        <v>177.273224</v>
+        <v>246.022995</v>
       </c>
       <c r="O14">
-        <v>0.2602347611759026</v>
+        <v>0.2863622109480123</v>
       </c>
       <c r="P14">
-        <v>0.2706020894912812</v>
+        <v>0.2949625822722868</v>
       </c>
       <c r="Q14">
-        <v>244.6389597314142</v>
+        <v>546.3174052461367</v>
       </c>
       <c r="R14">
-        <v>2201.750637582728</v>
+        <v>4916.856647215231</v>
       </c>
       <c r="S14">
-        <v>0.03476747625288681</v>
+        <v>0.08814398559673521</v>
       </c>
       <c r="T14">
-        <v>0.04138575372703919</v>
+        <v>0.09459055946810214</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.140032333333333</v>
+        <v>6.661784666666667</v>
       </c>
       <c r="H15">
-        <v>12.420097</v>
+        <v>19.985354</v>
       </c>
       <c r="I15">
-        <v>0.1336004309946362</v>
+        <v>0.3078059262949933</v>
       </c>
       <c r="J15">
-        <v>0.1529395201819853</v>
+        <v>0.3206866401135023</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>26.0983795</v>
+        <v>25.0501465</v>
       </c>
       <c r="N15">
-        <v>52.196759</v>
+        <v>50.100293</v>
       </c>
       <c r="O15">
-        <v>0.1149362335102661</v>
+        <v>0.0874724982879541</v>
       </c>
       <c r="P15">
-        <v>0.07967673702415903</v>
+        <v>0.06006638442832619</v>
       </c>
       <c r="Q15">
-        <v>108.0481349776038</v>
+        <v>166.8786818514537</v>
       </c>
       <c r="R15">
-        <v>648.288809865623</v>
+        <v>1001.272091108722</v>
       </c>
       <c r="S15">
-        <v>0.01535553033387171</v>
+        <v>0.02692455336086093</v>
       </c>
       <c r="T15">
-        <v>0.0121857219301411</v>
+        <v>0.01926248700608592</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.140032333333333</v>
+        <v>6.661784666666667</v>
       </c>
       <c r="H16">
-        <v>12.420097</v>
+        <v>19.985354</v>
       </c>
       <c r="I16">
-        <v>0.1336004309946362</v>
+        <v>0.3078059262949933</v>
       </c>
       <c r="J16">
-        <v>0.1529395201819853</v>
+        <v>0.3206866401135023</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>60.83231733333334</v>
+        <v>95.05788666666668</v>
       </c>
       <c r="N16">
-        <v>182.496952</v>
+        <v>285.17366</v>
       </c>
       <c r="O16">
-        <v>0.2679031251727568</v>
+        <v>0.3319322235782747</v>
       </c>
       <c r="P16">
-        <v>0.2785759485989269</v>
+        <v>0.3419012078510756</v>
       </c>
       <c r="Q16">
-        <v>251.8477606715938</v>
+        <v>633.2551718417378</v>
       </c>
       <c r="R16">
-        <v>2266.629846044345</v>
+        <v>5699.296546575642</v>
       </c>
       <c r="S16">
-        <v>0.03579197298789029</v>
+        <v>0.1021707055456677</v>
       </c>
       <c r="T16">
-        <v>0.04260527191296128</v>
+        <v>0.1096431495965096</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>11.755292</v>
+        <v>2.607918</v>
       </c>
       <c r="H17">
-        <v>23.510584</v>
+        <v>5.215835999999999</v>
       </c>
       <c r="I17">
-        <v>0.3793477806979605</v>
+        <v>0.1204981331366039</v>
       </c>
       <c r="J17">
-        <v>0.2895063892140504</v>
+        <v>0.08369373503331734</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.68421466666667</v>
+        <v>13.89934866666667</v>
       </c>
       <c r="N17">
-        <v>32.052644</v>
+        <v>41.69804600000001</v>
       </c>
       <c r="O17">
-        <v>0.04705285980693975</v>
+        <v>0.04853507553134179</v>
       </c>
       <c r="P17">
-        <v>0.04892736897547583</v>
+        <v>0.04999273878390351</v>
       </c>
       <c r="Q17">
-        <v>125.5960631973493</v>
+        <v>36.248361576076</v>
       </c>
       <c r="R17">
-        <v>753.5763791840959</v>
+        <v>217.490169456456</v>
       </c>
       <c r="S17">
-        <v>0.01784939794325486</v>
+        <v>0.005848385993170748</v>
       </c>
       <c r="T17">
-        <v>0.01416478592583356</v>
+        <v>0.004184079033369867</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>11.755292</v>
+        <v>2.607918</v>
       </c>
       <c r="H18">
-        <v>23.510584</v>
+        <v>5.215835999999999</v>
       </c>
       <c r="I18">
-        <v>0.3793477806979605</v>
+        <v>0.1204981331366039</v>
       </c>
       <c r="J18">
-        <v>0.2895063892140504</v>
+        <v>0.08369373503331734</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>211.087055</v>
       </c>
       <c r="O18">
-        <v>0.3098730203341347</v>
+        <v>0.245697991654417</v>
       </c>
       <c r="P18">
-        <v>0.3222178559101571</v>
+        <v>0.253077086664408</v>
       </c>
       <c r="Q18">
-        <v>827.1299896483533</v>
+        <v>183.49924343383</v>
       </c>
       <c r="R18">
-        <v>4962.779937890119</v>
+        <v>1100.99546060298</v>
       </c>
       <c r="S18">
-        <v>0.117549642561928</v>
+        <v>0.02960614930977013</v>
       </c>
       <c r="T18">
-        <v>0.09328412800484275</v>
+        <v>0.02118096663429485</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>11.755292</v>
+        <v>2.607918</v>
       </c>
       <c r="H19">
-        <v>23.510584</v>
+        <v>5.215835999999999</v>
       </c>
       <c r="I19">
-        <v>0.3793477806979605</v>
+        <v>0.1204981331366039</v>
       </c>
       <c r="J19">
-        <v>0.2895063892140504</v>
+        <v>0.08369373503331734</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>59.09107466666666</v>
+        <v>82.007665</v>
       </c>
       <c r="N19">
-        <v>177.273224</v>
+        <v>246.022995</v>
       </c>
       <c r="O19">
-        <v>0.2602347611759026</v>
+        <v>0.2863622109480123</v>
       </c>
       <c r="P19">
-        <v>0.2706020894912812</v>
+        <v>0.2949625822722868</v>
       </c>
       <c r="Q19">
-        <v>694.6328373004692</v>
+        <v>213.86926569147</v>
       </c>
       <c r="R19">
-        <v>4167.797023802816</v>
+        <v>1283.21559414882</v>
       </c>
       <c r="S19">
-        <v>0.09871947911254242</v>
+        <v>0.03450611182010584</v>
       </c>
       <c r="T19">
-        <v>0.07834103384239817</v>
+        <v>0.02468652020543984</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>11.755292</v>
+        <v>2.607918</v>
       </c>
       <c r="H20">
-        <v>23.510584</v>
+        <v>5.215835999999999</v>
       </c>
       <c r="I20">
-        <v>0.3793477806979605</v>
+        <v>0.1204981331366039</v>
       </c>
       <c r="J20">
-        <v>0.2895063892140504</v>
+        <v>0.08369373503331734</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>26.0983795</v>
+        <v>25.0501465</v>
       </c>
       <c r="N20">
-        <v>52.196759</v>
+        <v>50.100293</v>
       </c>
       <c r="O20">
-        <v>0.1149362335102661</v>
+        <v>0.0874724982879541</v>
       </c>
       <c r="P20">
-        <v>0.07967673702415903</v>
+        <v>0.06006638442832619</v>
       </c>
       <c r="Q20">
-        <v>306.794071749314</v>
+        <v>65.32872795998699</v>
       </c>
       <c r="R20">
-        <v>1227.176286997256</v>
+        <v>261.314911839948</v>
       </c>
       <c r="S20">
-        <v>0.04360080510390202</v>
+        <v>0.01054027274449325</v>
       </c>
       <c r="T20">
-        <v>0.02306692444022173</v>
+        <v>0.00502718006275371</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>11.755292</v>
+        <v>2.607918</v>
       </c>
       <c r="H21">
-        <v>23.510584</v>
+        <v>5.215835999999999</v>
       </c>
       <c r="I21">
-        <v>0.3793477806979605</v>
+        <v>0.1204981331366039</v>
       </c>
       <c r="J21">
-        <v>0.2895063892140504</v>
+        <v>0.08369373503331734</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>60.83231733333334</v>
+        <v>95.05788666666668</v>
       </c>
       <c r="N21">
-        <v>182.496952</v>
+        <v>285.17366</v>
       </c>
       <c r="O21">
-        <v>0.2679031251727568</v>
+        <v>0.3319322235782747</v>
       </c>
       <c r="P21">
-        <v>0.2785759485989269</v>
+        <v>0.3419012078510756</v>
       </c>
       <c r="Q21">
-        <v>715.1016532899947</v>
+        <v>247.90317367996</v>
       </c>
       <c r="R21">
-        <v>4290.609919739968</v>
+        <v>1487.41904207976</v>
       </c>
       <c r="S21">
-        <v>0.1016284559763332</v>
+        <v>0.03999721326906391</v>
       </c>
       <c r="T21">
-        <v>0.08064951700075425</v>
+        <v>0.02861498909745908</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>6.291073</v>
+        <v>5.325505333333333</v>
       </c>
       <c r="H22">
-        <v>18.873219</v>
+        <v>15.976516</v>
       </c>
       <c r="I22">
-        <v>0.2030153381778063</v>
+        <v>0.2460635076239721</v>
       </c>
       <c r="J22">
-        <v>0.2324024569332694</v>
+        <v>0.2563604946281968</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>10.68421466666667</v>
+        <v>13.89934866666667</v>
       </c>
       <c r="N22">
-        <v>32.052644</v>
+        <v>41.69804600000001</v>
       </c>
       <c r="O22">
-        <v>0.04705285980693975</v>
+        <v>0.04853507553134179</v>
       </c>
       <c r="P22">
-        <v>0.04892736897547583</v>
+        <v>0.04999273878390351</v>
       </c>
       <c r="Q22">
-        <v>67.21517441567067</v>
+        <v>74.02105545419289</v>
       </c>
       <c r="R22">
-        <v>604.936569741036</v>
+        <v>666.1894990877361</v>
       </c>
       <c r="S22">
-        <v>0.009552452245938784</v>
+        <v>0.01194271092803638</v>
       </c>
       <c r="T22">
-        <v>0.0113708407611812</v>
+        <v>0.01281616324245974</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>6.291073</v>
+        <v>5.325505333333333</v>
       </c>
       <c r="H23">
-        <v>18.873219</v>
+        <v>15.976516</v>
       </c>
       <c r="I23">
-        <v>0.2030153381778063</v>
+        <v>0.2460635076239721</v>
       </c>
       <c r="J23">
-        <v>0.2324024569332694</v>
+        <v>0.2563604946281968</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>211.087055</v>
       </c>
       <c r="O23">
-        <v>0.3098730203341347</v>
+        <v>0.245697991654417</v>
       </c>
       <c r="P23">
-        <v>0.3222178559101571</v>
+        <v>0.253077086664408</v>
       </c>
       <c r="Q23">
-        <v>442.6546907866717</v>
+        <v>374.7150790667089</v>
       </c>
       <c r="R23">
-        <v>3983.892217080045</v>
+        <v>3372.43571160038</v>
       </c>
       <c r="S23">
-        <v>0.0629089760153126</v>
+        <v>0.06045730964265128</v>
       </c>
       <c r="T23">
-        <v>0.07488422138129067</v>
+        <v>0.06487896711635065</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>6.291073</v>
+        <v>5.325505333333333</v>
       </c>
       <c r="H24">
-        <v>18.873219</v>
+        <v>15.976516</v>
       </c>
       <c r="I24">
-        <v>0.2030153381778063</v>
+        <v>0.2460635076239721</v>
       </c>
       <c r="J24">
-        <v>0.2324024569332694</v>
+        <v>0.2563604946281968</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>59.09107466666666</v>
+        <v>82.007665</v>
       </c>
       <c r="N24">
-        <v>177.273224</v>
+        <v>246.022995</v>
       </c>
       <c r="O24">
-        <v>0.2602347611759026</v>
+        <v>0.2863622109480123</v>
       </c>
       <c r="P24">
-        <v>0.2706020894912812</v>
+        <v>0.2949625822722868</v>
       </c>
       <c r="Q24">
-        <v>371.7462643764507</v>
+        <v>436.7322573317134</v>
       </c>
       <c r="R24">
-        <v>3345.716379388056</v>
+        <v>3930.59031598542</v>
       </c>
       <c r="S24">
-        <v>0.05283164804574652</v>
+        <v>0.07046329007682374</v>
       </c>
       <c r="T24">
-        <v>0.06288859044905018</v>
+        <v>0.07561675348813363</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>6.291073</v>
+        <v>5.325505333333333</v>
       </c>
       <c r="H25">
-        <v>18.873219</v>
+        <v>15.976516</v>
       </c>
       <c r="I25">
-        <v>0.2030153381778063</v>
+        <v>0.2460635076239721</v>
       </c>
       <c r="J25">
-        <v>0.2324024569332694</v>
+        <v>0.2563604946281968</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>26.0983795</v>
+        <v>25.0501465</v>
       </c>
       <c r="N25">
-        <v>52.196759</v>
+        <v>50.100293</v>
       </c>
       <c r="O25">
-        <v>0.1149362335102661</v>
+        <v>0.0874724982879541</v>
       </c>
       <c r="P25">
-        <v>0.07967673702415903</v>
+        <v>0.06006638442832619</v>
       </c>
       <c r="Q25">
-        <v>164.1868106162035</v>
+        <v>133.4046887865313</v>
       </c>
       <c r="R25">
-        <v>985.1208636972209</v>
+        <v>800.4281327191881</v>
       </c>
       <c r="S25">
-        <v>0.02333381831496999</v>
+        <v>0.02152378974936588</v>
       </c>
       <c r="T25">
-        <v>0.01851706944484055</v>
+        <v>0.01539864802257312</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>6.291073</v>
+        <v>5.325505333333333</v>
       </c>
       <c r="H26">
-        <v>18.873219</v>
+        <v>15.976516</v>
       </c>
       <c r="I26">
-        <v>0.2030153381778063</v>
+        <v>0.2460635076239721</v>
       </c>
       <c r="J26">
-        <v>0.2324024569332694</v>
+        <v>0.2563604946281968</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>60.83231733333334</v>
+        <v>95.05788666666668</v>
       </c>
       <c r="N26">
-        <v>182.496952</v>
+        <v>285.17366</v>
       </c>
       <c r="O26">
-        <v>0.2679031251727568</v>
+        <v>0.3319322235782747</v>
       </c>
       <c r="P26">
-        <v>0.2785759485989269</v>
+        <v>0.3419012078510756</v>
       </c>
       <c r="Q26">
-        <v>382.7005491031654</v>
+        <v>506.2312824187289</v>
       </c>
       <c r="R26">
-        <v>3444.304941928488</v>
+        <v>4556.081541768561</v>
       </c>
       <c r="S26">
-        <v>0.0543884435558384</v>
+        <v>0.08167640722709481</v>
       </c>
       <c r="T26">
-        <v>0.06474173489690677</v>
+        <v>0.08764996275867966</v>
       </c>
     </row>
   </sheetData>
